--- a/biology/Zoologie/Carpophage_cuivré/Carpophage_cuivré.xlsx
+++ b/biology/Zoologie/Carpophage_cuivré/Carpophage_cuivré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpophage_cuivr%C3%A9</t>
+          <t>Carpophage_cuivré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula myristicivora
 Le Carpophage cuivré (Ducula myristicivora) est une espèce d'oiseaux appartenant à la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpophage_cuivr%C3%A9</t>
+          <t>Carpophage_cuivré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 41 à 43 cm de longueur pour une masse de 540 g environ. Il ne présente pas de dimorphisme sexuel.
 La tête, le cou et le haut de la poitrine sont gris argenté pâle teinté de rose. L'arrière de la calotte et la nuque sont rose pâle (seulement chez la sous-espèce type). Le manteau, le dos, les couvertures alaires et le croupion sont vert émeraude métallique avec des reflets bleus ou bronze. Les rectrices et les rémiges primaires et secondaires sont vert noirâtre à bleu noirâtre. Le bas de la poitrine et le ventre sont rose grisâtre. Les iris sont bruns. Le bec est noire avec une protubérance. Les pattes sont rouge foncé.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpophage_cuivr%C3%A9</t>
+          <t>Carpophage_cuivré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les îles orientales de l'Indonésie, surtout les plus petites.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carpophage_cuivr%C3%A9</t>
+          <t>Carpophage_cuivré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les forêts primaires et secondaires, les mangroves et de nombreux boisements.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carpophage_cuivr%C3%A9</t>
+          <t>Carpophage_cuivré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Ducula myristicivora myristicivora (Scopoli, 1786) ;
